--- a/src/Excel/CancelacionAhorros.xlsx
+++ b/src/Excel/CancelacionAhorros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>usuario</t>
   </si>
@@ -67,12 +67,37 @@
   </si>
   <si>
     <t>5 mar. 2023, 20:21:36</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 12:07:40</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 13:47:11</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 13:49:23</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:41:03</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:43:58</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:47:52</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:51:29</t>
+  </si>
+  <si>
+    <t>6 mar. 2023, 15:52:44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,12 +432,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7265625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.7265625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -458,7 +483,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
